--- a/data/trans_orig/P10_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{385268F8-058B-4CAB-A6A3-7B3F7FFF1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B238A7E6-8B87-4B7C-9AAA-FA9D9B601442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF0BEBD-2245-4ED9-A17D-8FB51DA11A25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BB80349-24D0-4B2E-9CDD-9E6AEADC86E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1777 +77,1759 @@
     <t>10,23%</t>
   </si>
   <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
     <t>7,14%</t>
   </si>
   <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>88,56%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>81,0%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>86,25%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>12,72%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>87,28%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8234B26-02C0-4DBF-BCF2-2E927B009DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6868A1-7470-4E3A-941D-59AA06C4DEFB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,13 +2520,13 @@
         <v>40752</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -2553,13 +2535,13 @@
         <v>75950</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -2568,13 +2550,13 @@
         <v>116703</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2571,13 @@
         <v>452323</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
@@ -2604,13 +2586,13 @@
         <v>427999</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -2619,13 +2601,13 @@
         <v>880321</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2663,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2693,13 +2675,13 @@
         <v>7583</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2708,13 +2690,13 @@
         <v>12406</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2723,13 +2705,13 @@
         <v>19990</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2726,13 @@
         <v>311263</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>323</v>
@@ -2759,13 +2741,13 @@
         <v>323006</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -2774,13 +2756,13 @@
         <v>634268</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2818,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2848,13 +2830,13 @@
         <v>9509</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2863,13 +2845,13 @@
         <v>28522</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2878,13 +2860,13 @@
         <v>38031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2881,13 @@
         <v>349162</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -2914,13 +2896,13 @@
         <v>342934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -2929,13 +2911,13 @@
         <v>692096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,7 +2973,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3003,13 +2985,13 @@
         <v>13379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3018,13 +3000,13 @@
         <v>14853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3033,13 +3015,13 @@
         <v>28232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3036,13 @@
         <v>189929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3069,13 +3051,13 @@
         <v>192815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>375</v>
@@ -3084,13 +3066,13 @@
         <v>382744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3158,13 +3140,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3173,13 +3155,13 @@
         <v>12514</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3188,13 +3170,13 @@
         <v>16131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3191,13 @@
         <v>267194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -3224,13 +3206,13 @@
         <v>265630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3239,13 +3221,13 @@
         <v>532824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3313,13 +3295,13 @@
         <v>34719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -3328,13 +3310,13 @@
         <v>66877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -3343,13 +3325,13 @@
         <v>101595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3346,13 @@
         <v>580308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>553</v>
@@ -3379,13 +3361,13 @@
         <v>571342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1116</v>
@@ -3394,13 +3376,13 @@
         <v>1151651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3468,13 +3450,13 @@
         <v>60754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3483,13 +3465,13 @@
         <v>75699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -3498,13 +3480,13 @@
         <v>136453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3501,13 @@
         <v>683041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -3534,13 +3516,13 @@
         <v>707812</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1350</v>
@@ -3549,13 +3531,13 @@
         <v>1390853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3605,13 @@
         <v>198239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>308</v>
@@ -3638,28 +3620,28 @@
         <v>318275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>504</v>
       </c>
       <c r="N28" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3656,13 @@
         <v>3078305</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2989</v>
@@ -3689,13 +3671,13 @@
         <v>3060923</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6007</v>
@@ -3704,13 +3686,13 @@
         <v>6139227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3734,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD21AD-C4F2-445C-94C3-FD23D31F9B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D4C79-B9AB-4286-A5D0-C4E4B13E268C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +3894,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +3939,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +3984,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4033,13 @@
         <v>40375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -4066,13 +4048,13 @@
         <v>79265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -4081,13 +4063,13 @@
         <v>119640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4084,13 @@
         <v>465152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -4117,13 +4099,13 @@
         <v>443445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>844</v>
@@ -4132,13 +4114,13 @@
         <v>908597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4176,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4206,13 +4188,13 @@
         <v>16692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4221,13 +4203,13 @@
         <v>37180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4236,13 +4218,13 @@
         <v>53872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4239,13 @@
         <v>307354</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4272,13 +4254,13 @@
         <v>303840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>585</v>
@@ -4287,13 +4269,13 @@
         <v>611194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4331,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4361,13 +4343,13 @@
         <v>50830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -4376,13 +4358,13 @@
         <v>144525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4391,13 +4373,13 @@
         <v>195355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4394,13 @@
         <v>617890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>491</v>
@@ -4427,13 +4409,13 @@
         <v>531671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
@@ -4442,13 +4424,13 @@
         <v>1149561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +4486,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4516,13 +4498,13 @@
         <v>10273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4531,13 +4513,13 @@
         <v>39743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4546,13 +4528,13 @@
         <v>50015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4549,13 @@
         <v>202345</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4582,13 +4564,13 @@
         <v>179848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4597,13 +4579,13 @@
         <v>382194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4641,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4671,13 +4653,13 @@
         <v>22486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4686,13 +4668,13 @@
         <v>31674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -4701,13 +4683,13 @@
         <v>54160</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4704,13 @@
         <v>250441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -4737,13 +4719,13 @@
         <v>248357</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>477</v>
@@ -4752,13 +4734,13 @@
         <v>498798</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4796,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4826,13 +4808,13 @@
         <v>32840</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -4841,13 +4823,13 @@
         <v>55947</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -4856,13 +4838,13 @@
         <v>88787</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4859,13 @@
         <v>629948</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -4892,13 +4874,13 @@
         <v>636961</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4907,13 +4889,13 @@
         <v>1266909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4951,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4981,13 +4963,13 @@
         <v>69166</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -4996,13 +4978,13 @@
         <v>132410</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -5011,13 +4993,13 @@
         <v>201577</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5014,13 @@
         <v>708995</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>637</v>
@@ -5047,13 +5029,13 @@
         <v>691443</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1294</v>
@@ -5062,13 +5044,13 @@
         <v>1400437</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5118,13 @@
         <v>242663</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>483</v>
@@ -5151,13 +5133,13 @@
         <v>520744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>703</v>
@@ -5166,13 +5148,13 @@
         <v>763407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5169,13 @@
         <v>3182125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2813</v>
@@ -5202,13 +5184,13 @@
         <v>3035565</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5800</v>
@@ -5217,13 +5199,13 @@
         <v>6217690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5261,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A02694-0C9B-4F43-B01A-204DDC2ABC20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F9ADE-0A18-4CC4-A0D9-692F920D02B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5409,13 @@
         <v>47670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -5442,13 +5424,13 @@
         <v>73729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -5457,13 +5439,13 @@
         <v>121399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5460,13 @@
         <v>246091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5493,13 +5475,13 @@
         <v>214974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>430</v>
@@ -5508,13 +5490,13 @@
         <v>461065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5564,13 @@
         <v>14505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5597,13 +5579,13 @@
         <v>49082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -5612,13 +5594,13 @@
         <v>63587</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5615,13 @@
         <v>488070</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -5648,13 +5630,13 @@
         <v>474002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>901</v>
@@ -5663,13 +5645,13 @@
         <v>962072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,7 +5707,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5737,13 +5719,13 @@
         <v>6769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5752,13 +5734,13 @@
         <v>18651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5767,13 +5749,13 @@
         <v>25420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5770,13 @@
         <v>311796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -5803,13 +5785,13 @@
         <v>317658</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -5818,13 +5800,13 @@
         <v>629454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +5862,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5892,13 +5874,13 @@
         <v>33683</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5907,13 +5889,13 @@
         <v>80242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -5922,13 +5904,13 @@
         <v>113926</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5925,13 @@
         <v>336281</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5958,13 +5940,13 @@
         <v>307041</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>605</v>
@@ -5973,13 +5955,13 @@
         <v>643321</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6017,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6029,13 @@
         <v>9821</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6062,13 +6044,13 @@
         <v>16552</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6077,13 +6059,13 @@
         <v>26373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6080,13 @@
         <v>201400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -6113,13 +6095,13 @@
         <v>202035</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6128,13 +6110,13 @@
         <v>403435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6172,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6184,13 @@
         <v>19179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6217,13 +6199,13 @@
         <v>38201</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -6232,13 +6214,13 @@
         <v>57381</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6235,13 @@
         <v>243944</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6345,7 +6327,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6360,10 +6342,10 @@
         <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -6372,13 +6354,13 @@
         <v>89049</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -6387,13 +6369,13 @@
         <v>131590</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6390,13 @@
         <v>614016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -6423,13 +6405,13 @@
         <v>602245</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>1113</v>
@@ -6438,13 +6420,13 @@
         <v>1216262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6482,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6494,13 @@
         <v>31806</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -6527,13 +6509,13 @@
         <v>66753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -6542,13 +6524,13 @@
         <v>98558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6545,13 @@
         <v>746777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>699</v>
@@ -6578,13 +6560,13 @@
         <v>759414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>1417</v>
@@ -6593,13 +6575,13 @@
         <v>1506192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6649,13 @@
         <v>205975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>386</v>
@@ -6682,13 +6664,13 @@
         <v>432259</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>581</v>
@@ -6697,13 +6679,13 @@
         <v>638234</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6700,13 @@
         <v>3188375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>2952</v>
@@ -6733,13 +6715,13 @@
         <v>3112283</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
         <v>5988</v>
@@ -6748,13 +6730,13 @@
         <v>6300658</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6792,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B732EA25-C3CA-4AEA-B68F-28B252921F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A986E761-1A77-4D93-AEF8-1CD12C4D303A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6958,13 +6940,13 @@
         <v>6901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -6973,13 +6955,13 @@
         <v>9919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6988,13 +6970,13 @@
         <v>16820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +6991,13 @@
         <v>253397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -7024,13 +7006,13 @@
         <v>261484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>840</v>
@@ -7039,13 +7021,13 @@
         <v>514880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7095,13 @@
         <v>41131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -7128,13 +7110,13 @@
         <v>61450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -7143,13 +7125,13 @@
         <v>102581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7146,13 @@
         <v>478166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>634</v>
@@ -7179,13 +7161,13 @@
         <v>493116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
@@ -7194,13 +7176,13 @@
         <v>971283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,7 +7238,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7268,13 +7250,13 @@
         <v>16787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>493</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -7283,13 +7265,13 @@
         <v>31241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -7298,13 +7280,13 @@
         <v>48028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7301,13 @@
         <v>305453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>499</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -7334,13 +7316,13 @@
         <v>341426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -7349,13 +7331,13 @@
         <v>646879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>502</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,7 +7393,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7423,13 +7405,13 @@
         <v>19141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -7438,13 +7420,13 @@
         <v>46755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -7453,13 +7435,13 @@
         <v>65896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7456,13 @@
         <v>301812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -7489,13 +7471,13 @@
         <v>381801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>801</v>
@@ -7504,13 +7486,13 @@
         <v>683614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7578,13 +7560,13 @@
         <v>6155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -7593,13 +7575,13 @@
         <v>22207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -7608,13 +7590,13 @@
         <v>28361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7611,13 @@
         <v>190593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H17" s="7">
         <v>441</v>
@@ -7644,13 +7626,13 @@
         <v>209023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>529</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -7659,13 +7641,13 @@
         <v>399616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,7 +7703,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7733,13 +7715,13 @@
         <v>16050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -7748,13 +7730,13 @@
         <v>23336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -7763,13 +7745,13 @@
         <v>39386</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>550</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7766,13 @@
         <v>261173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>412</v>
@@ -7799,13 +7781,13 @@
         <v>252286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>758</v>
@@ -7814,13 +7796,13 @@
         <v>513459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>558</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,7 +7858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7888,13 +7870,13 @@
         <v>56659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -7903,13 +7885,13 @@
         <v>107143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>201</v>
@@ -7918,13 +7900,13 @@
         <v>163802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7921,13 @@
         <v>571095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
@@ -7954,13 +7936,13 @@
         <v>696373</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>1357</v>
@@ -7969,13 +7951,13 @@
         <v>1267468</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,7 +8013,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8043,13 +8025,13 @@
         <v>47260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -8058,13 +8040,13 @@
         <v>140021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -8073,13 +8055,13 @@
         <v>187281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8076,13 @@
         <v>812168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>874</v>
@@ -8109,13 +8091,13 @@
         <v>727779</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>1582</v>
@@ -8124,13 +8106,13 @@
         <v>1539947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8180,13 @@
         <v>210083</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>657</v>
@@ -8213,13 +8195,13 @@
         <v>442073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>584</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M28" s="7">
         <v>881</v>
@@ -8228,13 +8210,13 @@
         <v>652155</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8231,13 @@
         <v>3173859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>596</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>4702</v>
@@ -8264,13 +8246,13 @@
         <v>3363287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>7852</v>
@@ -8279,13 +8261,13 @@
         <v>6537147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8323,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P10_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B238A7E6-8B87-4B7C-9AAA-FA9D9B601442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D87D86-799F-45E1-B492-56F26736F45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BB80349-24D0-4B2E-9CDD-9E6AEADC86E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F7E2730-D1DF-495F-8CCA-7A9378993083}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1614 +77,1578 @@
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
     <t>13,33%</t>
   </si>
   <si>
@@ -1706,12 +1670,6 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
     <t>86,67%</t>
   </si>
   <si>
@@ -1784,15 +1742,9 @@
     <t>90,68%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
     <t>10,25%</t>
   </si>
   <si>
@@ -1802,21 +1754,12 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
     <t>87,29%</t>
   </si>
   <si>
@@ -1827,9 +1770,6 @@
   </si>
   <si>
     <t>90,15%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6868A1-7470-4E3A-941D-59AA06C4DEFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CAB678-668D-4866-8D76-8264565DC51D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2520,13 +2460,13 @@
         <v>40752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -2535,13 +2475,13 @@
         <v>75950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -2550,13 +2490,13 @@
         <v>116703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2511,13 @@
         <v>452323</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
@@ -2586,13 +2526,13 @@
         <v>427999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -2601,13 +2541,13 @@
         <v>880321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2603,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2675,13 +2615,13 @@
         <v>7583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2690,13 +2630,13 @@
         <v>12406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2705,13 +2645,13 @@
         <v>19990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2666,13 @@
         <v>311263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>323</v>
@@ -2741,13 +2681,13 @@
         <v>323006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -2756,13 +2696,13 @@
         <v>634268</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2830,13 +2770,13 @@
         <v>9509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2845,13 +2785,13 @@
         <v>28522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2860,13 +2800,13 @@
         <v>38031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2821,13 @@
         <v>349162</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -2896,13 +2836,13 @@
         <v>342934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -2911,13 +2851,13 @@
         <v>692096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2985,13 +2925,13 @@
         <v>13379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3000,13 +2940,13 @@
         <v>14853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3015,13 +2955,13 @@
         <v>28232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +2976,13 @@
         <v>189929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3051,13 +2991,13 @@
         <v>192815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>375</v>
@@ -3066,13 +3006,13 @@
         <v>382744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3080,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3155,13 +3095,13 @@
         <v>12514</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3170,13 +3110,13 @@
         <v>16131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3131,13 @@
         <v>267194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -3206,13 +3146,13 @@
         <v>265630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3221,13 +3161,13 @@
         <v>532824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3223,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3235,13 @@
         <v>34719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -3310,13 +3250,13 @@
         <v>66877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -3325,13 +3265,13 @@
         <v>101595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3286,13 @@
         <v>580308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>553</v>
@@ -3361,13 +3301,13 @@
         <v>571342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1116</v>
@@ -3376,13 +3316,13 @@
         <v>1151651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3390,13 @@
         <v>60754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3465,13 +3405,13 @@
         <v>75699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -3480,13 +3420,13 @@
         <v>136453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3441,13 @@
         <v>683041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -3516,13 +3456,13 @@
         <v>707812</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1350</v>
@@ -3531,13 +3471,13 @@
         <v>1390853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,16 +3542,16 @@
         <v>196</v>
       </c>
       <c r="D28" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>308</v>
@@ -3620,13 +3560,13 @@
         <v>318275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>504</v>
@@ -3635,13 +3575,13 @@
         <v>516514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3596,13 @@
         <v>3078305</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2989</v>
@@ -3671,13 +3611,13 @@
         <v>3060923</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6007</v>
@@ -3686,13 +3626,13 @@
         <v>6139227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3644,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3688,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D4C79-B9AB-4286-A5D0-C4E4B13E268C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE1867-0590-4EA8-A741-70FCFCC027C7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,39 +3834,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,39 +3879,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3924,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +3973,13 @@
         <v>40375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -4048,13 +3988,13 @@
         <v>79265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -4063,13 +4003,13 @@
         <v>119640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4024,13 @@
         <v>465152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -4099,13 +4039,13 @@
         <v>443445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>844</v>
@@ -4114,13 +4054,13 @@
         <v>908597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,7 +4116,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4188,13 +4128,13 @@
         <v>16692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4203,13 +4143,13 @@
         <v>37180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4218,13 +4158,13 @@
         <v>53872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4179,13 @@
         <v>307354</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4254,13 +4194,13 @@
         <v>303840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>585</v>
@@ -4269,13 +4209,13 @@
         <v>611194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4271,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4343,13 +4283,13 @@
         <v>50830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -4358,13 +4298,13 @@
         <v>144525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4373,13 +4313,13 @@
         <v>195355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4334,13 @@
         <v>617890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>491</v>
@@ -4409,13 +4349,13 @@
         <v>531671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
@@ -4424,13 +4364,13 @@
         <v>1149561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4498,13 +4438,13 @@
         <v>10273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4513,13 +4453,13 @@
         <v>39743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4528,13 +4468,13 @@
         <v>50015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4489,13 @@
         <v>202345</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4564,13 +4504,13 @@
         <v>179848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4579,13 +4519,13 @@
         <v>382194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4593,13 @@
         <v>22486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4668,13 +4608,13 @@
         <v>31674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -4683,13 +4623,13 @@
         <v>54160</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4644,13 @@
         <v>250441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -4719,13 +4659,13 @@
         <v>248357</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>477</v>
@@ -4734,13 +4674,13 @@
         <v>498798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4748,13 @@
         <v>32840</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -4823,13 +4763,13 @@
         <v>55947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -4838,13 +4778,13 @@
         <v>88787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4799,13 @@
         <v>629948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -4874,13 +4814,13 @@
         <v>636961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4951,7 +4891,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5118,13 +5058,13 @@
         <v>242663</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>483</v>
@@ -5133,13 +5073,13 @@
         <v>520744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>703</v>
@@ -5148,13 +5088,13 @@
         <v>763407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5109,13 @@
         <v>3182125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2813</v>
@@ -5184,13 +5124,13 @@
         <v>3035565</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>5800</v>
@@ -5199,13 +5139,13 @@
         <v>6217690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5201,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F9ADE-0A18-4CC4-A0D9-692F920D02B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCF2A79-35A3-4008-8A18-8A8C85B08519}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5349,13 @@
         <v>47670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -5424,13 +5364,13 @@
         <v>73729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -5439,13 +5379,13 @@
         <v>121399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5400,13 @@
         <v>246091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5475,13 +5415,13 @@
         <v>214974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>430</v>
@@ -5490,13 +5430,13 @@
         <v>461065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5504,13 @@
         <v>14505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5579,13 +5519,13 @@
         <v>49082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -5594,13 +5534,13 @@
         <v>63587</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5555,13 @@
         <v>488070</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -5630,13 +5570,13 @@
         <v>474002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>901</v>
@@ -5645,13 +5585,13 @@
         <v>962072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +5647,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5719,13 +5659,13 @@
         <v>6769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5734,13 +5674,13 @@
         <v>18651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5749,13 +5689,13 @@
         <v>25420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5710,13 @@
         <v>311796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -5785,13 +5725,13 @@
         <v>317658</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -5862,7 +5802,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6017,7 +5957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6032,10 +5972,10 @@
         <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6044,13 +5984,13 @@
         <v>16552</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6059,10 +5999,10 @@
         <v>26373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>392</v>
@@ -6086,7 +6026,7 @@
         <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -6095,13 +6035,13 @@
         <v>202035</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6110,13 +6050,13 @@
         <v>403435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6112,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6190,7 +6130,7 @@
         <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6199,13 +6139,13 @@
         <v>38201</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -6214,13 +6154,13 @@
         <v>57381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6175,13 @@
         <v>243944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6250,13 +6190,13 @@
         <v>234914</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -6265,13 +6205,13 @@
         <v>478857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6267,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6339,13 +6279,13 @@
         <v>42542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -6354,13 +6294,13 @@
         <v>89049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -6369,13 +6309,13 @@
         <v>131590</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6330,13 @@
         <v>614016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -6405,13 +6345,13 @@
         <v>602245</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>1113</v>
@@ -6420,13 +6360,13 @@
         <v>1216262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6422,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6434,13 @@
         <v>31806</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -6509,13 +6449,13 @@
         <v>66753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -6524,13 +6464,13 @@
         <v>98558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6485,13 @@
         <v>746777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>699</v>
@@ -6560,13 +6500,13 @@
         <v>759414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>1417</v>
@@ -6575,13 +6515,13 @@
         <v>1506192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6589,13 @@
         <v>205975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>33</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>386</v>
@@ -6664,13 +6604,13 @@
         <v>432259</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M28" s="7">
         <v>581</v>
@@ -6679,13 +6619,13 @@
         <v>638234</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6640,13 @@
         <v>3188375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>2952</v>
@@ -6715,13 +6655,13 @@
         <v>3112283</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>5988</v>
@@ -6730,13 +6670,13 @@
         <v>6300658</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6732,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A986E761-1A77-4D93-AEF8-1CD12C4D303A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BA4264-1576-431F-B2BC-76837C36431F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +6880,13 @@
         <v>6901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -6955,13 +6895,13 @@
         <v>9919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6970,13 +6910,13 @@
         <v>16820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6931,13 @@
         <v>253397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -7006,13 +6946,13 @@
         <v>261484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>840</v>
@@ -7021,13 +6961,13 @@
         <v>514880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7035,13 @@
         <v>41131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -7110,13 +7050,13 @@
         <v>61450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -7125,13 +7065,13 @@
         <v>102581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7086,13 @@
         <v>478166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>634</v>
@@ -7161,13 +7101,13 @@
         <v>493116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
@@ -7176,13 +7116,13 @@
         <v>971283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7178,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7250,13 +7190,13 @@
         <v>16787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -7265,13 +7205,13 @@
         <v>31241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -7280,13 +7220,13 @@
         <v>48028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7241,13 @@
         <v>305453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -7316,13 +7256,13 @@
         <v>341426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -7331,13 +7271,13 @@
         <v>646879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,7 +7333,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7405,13 +7345,13 @@
         <v>19141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -7420,13 +7360,13 @@
         <v>46755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -7435,13 +7375,13 @@
         <v>65896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7396,13 @@
         <v>301812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -7471,13 +7411,13 @@
         <v>381801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>801</v>
@@ -7486,13 +7426,13 @@
         <v>683614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7560,13 +7500,13 @@
         <v>6155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -7575,13 +7515,13 @@
         <v>22207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -7590,13 +7530,13 @@
         <v>28361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7551,13 @@
         <v>190593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>441</v>
@@ -7626,13 +7566,13 @@
         <v>209023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -7641,13 +7581,13 @@
         <v>399616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7715,13 +7655,13 @@
         <v>16050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -7730,13 +7670,13 @@
         <v>23336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -7745,10 +7685,10 @@
         <v>39386</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>283</v>
@@ -7766,13 +7706,13 @@
         <v>261173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>412</v>
@@ -7781,13 +7721,13 @@
         <v>252286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>758</v>
@@ -7796,13 +7736,13 @@
         <v>513459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7798,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7870,13 +7810,13 @@
         <v>56659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>546</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -7885,13 +7825,13 @@
         <v>107143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
         <v>201</v>
@@ -7900,13 +7840,13 @@
         <v>163802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7861,13 @@
         <v>571095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
@@ -7936,13 +7876,13 @@
         <v>696373</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>1357</v>
@@ -7951,13 +7891,13 @@
         <v>1267468</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +7953,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,13 +7965,13 @@
         <v>47260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -8040,13 +7980,13 @@
         <v>140021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -8055,13 +7995,13 @@
         <v>187281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8016,13 @@
         <v>812168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>874</v>
@@ -8091,13 +8031,13 @@
         <v>727779</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>1582</v>
@@ -8106,13 +8046,13 @@
         <v>1539947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8120,13 @@
         <v>210083</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>581</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>657</v>
@@ -8195,13 +8135,13 @@
         <v>442073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>583</v>
+        <v>94</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="M28" s="7">
         <v>881</v>
@@ -8210,13 +8150,13 @@
         <v>652155</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8171,13 @@
         <v>3173859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>4702</v>
@@ -8246,13 +8186,13 @@
         <v>3363287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="M29" s="7">
         <v>7852</v>
@@ -8261,13 +8201,13 @@
         <v>6537147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,7 +8263,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
